--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/131.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/131.xlsx
@@ -479,13 +479,13 @@
         <v>-10.80136807384815</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.65742542290798</v>
+        <v>-21.62250813586447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1832153976337022</v>
+        <v>0.1334355297147742</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.645553651922855</v>
+        <v>-8.822789928862255</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.09020071069532</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.81846930910416</v>
+        <v>-21.76954012838007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0505913083549004</v>
+        <v>0.0113472502341741</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.048087678744647</v>
+        <v>-8.259419889573913</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.27952584591626</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.02716145622529</v>
+        <v>-22.00471113669241</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.09809805748858393</v>
+        <v>-0.1381390237286174</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.925451830494952</v>
+        <v>-8.143467313711291</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.3278868402592</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.05876888561989</v>
+        <v>-22.04599879968351</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.079871839888725</v>
+        <v>-0.1325704449072012</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.448763882957011</v>
+        <v>-7.675388907265986</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.23981532954092</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.03356605522094</v>
+        <v>-22.00813344149925</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2022827938225415</v>
+        <v>-0.2614691109534139</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.595940192112968</v>
+        <v>-6.884425820309018</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.01203263500264</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.27044821593671</v>
+        <v>-22.25689588890162</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.378145259832339</v>
+        <v>-0.3795484048031437</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.946225402548039</v>
+        <v>-6.26084277244775</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.66140798105356</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.68654181236611</v>
+        <v>-22.64997204100158</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5626025999141732</v>
+        <v>-0.5558704374584312</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.574704881724306</v>
+        <v>-5.861014901864579</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.19743180383928</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.7842192805602</v>
+        <v>-22.83848236777609</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7537187673487454</v>
+        <v>-0.7080847772529613</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.270202867032242</v>
+        <v>-5.571302132944933</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.634842129502237</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.20470809416295</v>
+        <v>-23.3059838714111</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.844272952537744</v>
+        <v>-0.805938249694264</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.029917957537107</v>
+        <v>-5.316457761000124</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.000031599265789</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.63010547066009</v>
+        <v>-23.74517802528667</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.112082970693611</v>
+        <v>-1.059086136256253</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.694595643556011</v>
+        <v>-5.013613119635945</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.313700609008364</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.19296216422741</v>
+        <v>-24.24705413620296</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.051894407155021</v>
+        <v>-1.006793318807731</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.540645706323726</v>
+        <v>-4.848589581850097</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.592778007367375</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.78220482785547</v>
+        <v>-24.86780156008141</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9754205617427375</v>
+        <v>-0.9427033277893427</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.509517399602078</v>
+        <v>-4.75339084013753</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.867460753799151</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.35134389524677</v>
+        <v>-25.45664821415325</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8787844520112966</v>
+        <v>-0.8263205193224323</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.390411414310297</v>
+        <v>-4.654456897178639</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.153456829945497</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.95460823056914</v>
+        <v>-26.10717457885809</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8341087072614278</v>
+        <v>-0.8101623516272785</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.386402428679427</v>
+        <v>-4.617828457731712</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.458033387348186</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.68454428930984</v>
+        <v>-26.84208520208587</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7389148545557269</v>
+        <v>-0.731322226891408</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.286070229756597</v>
+        <v>-4.524736877978785</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.799530101644796</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.53414368012515</v>
+        <v>-27.67914673479098</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6536407967829964</v>
+        <v>-0.6463121754894909</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.351739369992999</v>
+        <v>-4.560294624921857</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.182315187533784</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.32165512823408</v>
+        <v>-28.48852671061562</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.53766377588604</v>
+        <v>-0.5125636146312986</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.54244486085075</v>
+        <v>-4.735247735654409</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.602500828469994</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.0007772941035</v>
+        <v>-29.18903828152779</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.273016945173067</v>
+        <v>-0.2345502391441801</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.702848287147363</v>
+        <v>-4.932602275851164</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.066472776042129</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.46060794596432</v>
+        <v>-29.63727465360372</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1073089464258517</v>
+        <v>-0.0586779951206487</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.034313174710463</v>
+        <v>-5.238453656438496</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.569491249474026</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.08211316590715</v>
+        <v>-30.27194108003229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3538710713302354</v>
+        <v>0.3995735075221563</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.335485775726157</v>
+        <v>-5.524881012743576</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.103239610292528</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.58415061405004</v>
+        <v>-30.78682683822144</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3865345262080941</v>
+        <v>0.4154383348052953</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.566540240256558</v>
+        <v>-5.775129718233484</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.672990827804993</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.9246283857723</v>
+        <v>-31.13759841390198</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6542565422403567</v>
+        <v>0.6788042457191367</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.880067361624946</v>
+        <v>-6.069164369223483</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.281077072727536</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.11248114112321</v>
+        <v>-31.35390030021147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9112325211791402</v>
+        <v>0.9074924309259502</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.045169123520664</v>
+        <v>-6.270474115975573</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.9316858894178268</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.36267362303414</v>
+        <v>-31.61798245063131</v>
       </c>
       <c r="F25" t="n">
-        <v>1.164849752400353</v>
+        <v>1.136341953359372</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.125656843570686</v>
+        <v>-6.326291907375141</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.6398115707558921</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.23131823103731</v>
+        <v>-31.50313234581718</v>
       </c>
       <c r="F26" t="n">
-        <v>1.224182739737233</v>
+        <v>1.196730966179506</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.247358891508799</v>
+        <v>-6.441413352070387</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.4169877493851217</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.29223525659907</v>
+        <v>-31.57492741165782</v>
       </c>
       <c r="F27" t="n">
-        <v>1.42602049923095</v>
+        <v>1.411764155207026</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.523421553256019</v>
+        <v>-6.742116608426858</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.2747668857910131</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.15071806382935</v>
+        <v>-31.42081858170236</v>
       </c>
       <c r="F28" t="n">
-        <v>1.581310024344769</v>
+        <v>1.566770117922564</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.597152665815963</v>
+        <v>-6.832734350705127</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2267564528217283</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.91494815217581</v>
+        <v>-31.22640477913606</v>
       </c>
       <c r="F29" t="n">
-        <v>1.57226047263411</v>
+        <v>1.574162296305339</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.935770170425359</v>
+        <v>-7.126989007004137</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.278298864409703</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.74106573394711</v>
+        <v>-31.05249791587303</v>
       </c>
       <c r="F30" t="n">
-        <v>1.689640638501871</v>
+        <v>1.679231942882209</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.089661439575241</v>
+        <v>-7.189846968292062</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.432289994310182</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.46310124852866</v>
+        <v>-30.7717222515061</v>
       </c>
       <c r="F31" t="n">
-        <v>1.662721766692637</v>
+        <v>1.645145787006078</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.072080570881814</v>
+        <v>-7.184801513205405</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.686083460790074</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.11440016725625</v>
+        <v>-30.38956814074683</v>
       </c>
       <c r="F32" t="n">
-        <v>1.572617370135394</v>
+        <v>1.587607065189356</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.161485839457089</v>
+        <v>-7.252440923209174</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.025519903624436</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.59695501397228</v>
+        <v>-29.87030916591522</v>
       </c>
       <c r="F33" t="n">
-        <v>1.60942181382953</v>
+        <v>1.583544300482949</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.511861405581415</v>
+        <v>-7.53972874472283</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.437810739382801</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.89796392419571</v>
+        <v>-29.22082171516961</v>
       </c>
       <c r="F34" t="n">
-        <v>1.594916130455393</v>
+        <v>1.591718719964431</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.441782381151056</v>
+        <v>-7.500944253247594</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.907665552829852</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.42815236481609</v>
+        <v>-28.78591033130946</v>
       </c>
       <c r="F35" t="n">
-        <v>1.630341874213059</v>
+        <v>1.619400276844904</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.50808220327329</v>
+        <v>-7.55540290073816</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.414345108067358</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.80703337641575</v>
+        <v>-28.15177680662939</v>
       </c>
       <c r="F36" t="n">
-        <v>1.515342654689486</v>
+        <v>1.499252933090469</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.494192534764385</v>
+        <v>-7.490643115779005</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.946703516517407</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.07210808616735</v>
+        <v>-27.45400307956268</v>
       </c>
       <c r="F37" t="n">
-        <v>1.685636541877867</v>
+        <v>1.626557782898067</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.422578362177815</v>
+        <v>-7.421224107275679</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.492670336604679</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.60364344817956</v>
+        <v>-26.96461593668793</v>
       </c>
       <c r="F38" t="n">
-        <v>1.488692678257932</v>
+        <v>1.481535172204769</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.34656408341102</v>
+        <v>-7.38041556695754</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.034773445670134</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.87399828534744</v>
+        <v>-26.21981240806494</v>
       </c>
       <c r="F39" t="n">
-        <v>1.527658062987244</v>
+        <v>1.53287952232111</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.36401294891904</v>
+        <v>-7.385324129851922</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.56815644763489</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.21729221596283</v>
+        <v>-25.5567408517396</v>
       </c>
       <c r="F40" t="n">
-        <v>1.621849669285228</v>
+        <v>1.597800644506873</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.120926638489162</v>
+        <v>-7.098412761867019</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.087014866914086</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.69132796821325</v>
+        <v>-25.03527937931445</v>
       </c>
       <c r="F41" t="n">
-        <v>1.645409793376891</v>
+        <v>1.601306062430451</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.169792262123977</v>
+        <v>-7.140673337224632</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.579172210306947</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.99294800429505</v>
+        <v>-24.31505044370801</v>
       </c>
       <c r="F42" t="n">
-        <v>1.706713050481138</v>
+        <v>1.633368169463679</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.888517919056626</v>
+        <v>-6.857467836444849</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.046284590182871</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.33115736776884</v>
+        <v>-23.6237057606713</v>
       </c>
       <c r="F43" t="n">
-        <v>1.615738410701584</v>
+        <v>1.573722285687317</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.90428007719556</v>
+        <v>-6.880392389643814</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.48813876201745</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.63417565981458</v>
+        <v>-22.91825140381667</v>
       </c>
       <c r="F44" t="n">
-        <v>1.705427241675139</v>
+        <v>1.677731017774066</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.80260340138433</v>
+        <v>-6.75599649892203</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.8964545963699</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.87270795128571</v>
+        <v>-22.11485068339027</v>
       </c>
       <c r="F45" t="n">
-        <v>1.740290749643109</v>
+        <v>1.714022115747175</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.699978258240918</v>
+        <v>-6.674931876061713</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.274246398565191</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.38923895122336</v>
+        <v>-21.60772866810579</v>
       </c>
       <c r="F46" t="n">
-        <v>1.762384171674698</v>
+        <v>1.723360118862983</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.517892086489538</v>
+        <v>-6.507517613917944</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.621879295447543</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.78460569397825</v>
+        <v>-20.95213240327996</v>
       </c>
       <c r="F47" t="n">
-        <v>1.823100747954915</v>
+        <v>1.794196939357714</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.556441905635162</v>
+        <v>-6.50001298837723</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.932254010813216</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.15614830627067</v>
+        <v>-20.31388722382481</v>
       </c>
       <c r="F48" t="n">
-        <v>1.870299220248112</v>
+        <v>1.829212006538558</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.529479032764126</v>
+        <v>-6.463780558486523</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.206610204814288</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.45488382830099</v>
+        <v>-19.58464295955578</v>
       </c>
       <c r="F49" t="n">
-        <v>1.968436255087695</v>
+        <v>1.975691541278197</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.197178125026784</v>
+        <v>-6.163204416308592</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.445561358157745</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.09538048635613</v>
+        <v>-19.20129104211411</v>
       </c>
       <c r="F50" t="n">
-        <v>1.977627587997496</v>
+        <v>1.972254569450756</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.216885711707318</v>
+        <v>-6.153768633055446</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.644835284912928</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.57295099057134</v>
+        <v>-18.63100305810908</v>
       </c>
       <c r="F51" t="n">
-        <v>1.965092174390726</v>
+        <v>1.947506416690433</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.21745283650388</v>
+        <v>-6.1843640380286</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.806111460467566</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.01697312966577</v>
+        <v>-18.06463605761132</v>
       </c>
       <c r="F52" t="n">
-        <v>1.993898202850588</v>
+        <v>1.983557953327064</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.253343035913903</v>
+        <v>-6.21540923163351</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.931991742083705</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.72487452539507</v>
+        <v>-17.72151088867063</v>
       </c>
       <c r="F53" t="n">
-        <v>2.059215334592572</v>
+        <v>2.06533637118995</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.197847918967551</v>
+        <v>-6.112720531400829</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.022873452095848</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.16911666979851</v>
+        <v>-17.13057173965975</v>
       </c>
       <c r="F54" t="n">
-        <v>2.147481464567855</v>
+        <v>2.123168433418687</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.117242862752724</v>
+        <v>-6.097857950525407</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.082360739325747</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.90651344395591</v>
+        <v>-16.87814742611407</v>
       </c>
       <c r="F55" t="n">
-        <v>2.047696834414121</v>
+        <v>2.05798330486211</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.345564372444519</v>
+        <v>-6.330520898315022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.115673969158646</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.46384809520483</v>
+        <v>-16.37028717079268</v>
       </c>
       <c r="F56" t="n">
-        <v>2.092333467109054</v>
+        <v>2.101475909950185</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.196933674683438</v>
+        <v>-6.186045856390819</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.127927804246548</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.39594956783711</v>
+        <v>-16.28206993088606</v>
       </c>
       <c r="F57" t="n">
-        <v>2.08062918466966</v>
+        <v>2.115126017122611</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.315521425247328</v>
+        <v>-6.339854012423963</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.124364277535847</v>
       </c>
       <c r="E58" t="n">
-        <v>-16.107503051696</v>
+        <v>-16.01201096957142</v>
       </c>
       <c r="F58" t="n">
-        <v>2.006032717894271</v>
+        <v>2.006365170361222</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.550575097394864</v>
+        <v>-6.529894598347814</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.111551132937281</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.82938211805781</v>
+        <v>-15.73555718727484</v>
       </c>
       <c r="F59" t="n">
-        <v>2.075212165061118</v>
+        <v>2.070191155008796</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.30296645561309</v>
+        <v>-6.324507419868717</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.097435331669233</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.50314357883544</v>
+        <v>-15.44142964515437</v>
       </c>
       <c r="F60" t="n">
-        <v>2.04611279618924</v>
+        <v>2.104947104825694</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.276106251886259</v>
+        <v>-6.332036490443766</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.086011401268147</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.41080490614002</v>
+        <v>-15.30634638542151</v>
       </c>
       <c r="F61" t="n">
-        <v>2.044357642724018</v>
+        <v>2.056976169447525</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.142611919385146</v>
+        <v>-6.182041759766816</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.081369854317412</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.33364659976637</v>
+        <v>-15.24128348203661</v>
       </c>
       <c r="F62" t="n">
-        <v>2.072723660565858</v>
+        <v>2.103719964102099</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.211884257682464</v>
+        <v>-6.261825462828</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.09064449556127</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22432840622215</v>
+        <v>-15.13183817431385</v>
       </c>
       <c r="F63" t="n">
-        <v>2.083044354061916</v>
+        <v>2.075329501225924</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.249783838914789</v>
+        <v>-6.314103613255922</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.113073638212821</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.3500296617774</v>
+        <v>-15.2267289085938</v>
       </c>
       <c r="F64" t="n">
-        <v>1.929773988784132</v>
+        <v>1.91790836911813</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.234183018002463</v>
+        <v>-6.305738522506631</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.146643053887296</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33916628851911</v>
+        <v>-15.2187060483252</v>
       </c>
       <c r="F65" t="n">
-        <v>1.961479198316076</v>
+        <v>1.945536146923066</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.284652235889626</v>
+        <v>-6.373857055183357</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.193082536827781</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.30905000621892</v>
+        <v>-15.19671040643095</v>
       </c>
       <c r="F66" t="n">
-        <v>1.964666830793304</v>
+        <v>1.977197355393207</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.200551539764955</v>
+        <v>-6.261194780942168</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.243934437091687</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.16338204661919</v>
+        <v>-15.05143845638744</v>
       </c>
       <c r="F67" t="n">
-        <v>1.794226273398915</v>
+        <v>1.795252964840967</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.007372211432545</v>
+        <v>-6.087292806686004</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.29052960300988</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.24037901576623</v>
+        <v>-15.15161420709052</v>
       </c>
       <c r="F68" t="n">
-        <v>1.729955389126451</v>
+        <v>1.749511416594111</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.087703483262825</v>
+        <v>-6.19493407087487</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.329048961194706</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.1407410558185</v>
+        <v>-15.0383065839429</v>
       </c>
       <c r="F69" t="n">
-        <v>1.782057535307164</v>
+        <v>1.769253226322714</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.812286170422038</v>
+        <v>-5.924615992196276</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.347524571329236</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.20350123696909</v>
+        <v>-15.08937714967469</v>
       </c>
       <c r="F70" t="n">
-        <v>1.609084472355713</v>
+        <v>1.60869335180636</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.798068938453049</v>
+        <v>-5.91026675704188</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.336437521592549</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.30595526487216</v>
+        <v>-15.13249819024088</v>
       </c>
       <c r="F71" t="n">
-        <v>1.568080371762897</v>
+        <v>1.527350055554629</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.736198556552241</v>
+        <v>-5.840505518057871</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.29405841082826</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.3946858504998</v>
+        <v>-15.23827674281346</v>
       </c>
       <c r="F72" t="n">
-        <v>1.457051025815259</v>
+        <v>1.433349120524455</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.602938896380739</v>
+        <v>-5.690916574950874</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.213084020361464</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.5017599898921</v>
+        <v>-15.3540190913808</v>
       </c>
       <c r="F73" t="n">
-        <v>1.375893511824471</v>
+        <v>1.354064096163695</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.75089002218732</v>
+        <v>-5.844299387386597</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.089965081422726</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.65299163930638</v>
+        <v>-15.50875615871866</v>
       </c>
       <c r="F74" t="n">
-        <v>1.308772336548595</v>
+        <v>1.259134249828808</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.625105653515332</v>
+        <v>-5.72535962832829</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.930050618324936</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.82364242399605</v>
+        <v>-15.71043258098577</v>
       </c>
       <c r="F75" t="n">
-        <v>1.206694762174278</v>
+        <v>1.156430882575526</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.640378910967574</v>
+        <v>-5.744460978157327</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.7330283260232</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.85749390754257</v>
+        <v>-15.74275380538294</v>
       </c>
       <c r="F76" t="n">
-        <v>1.029414484173075</v>
+        <v>0.9772634479236935</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.764222343913397</v>
+        <v>-5.849902189256081</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.500375931920949</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.88255006773551</v>
+        <v>-15.80375394406144</v>
       </c>
       <c r="F77" t="n">
-        <v>0.865657199165759</v>
+        <v>0.8211721256836999</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.642745190291161</v>
+        <v>-5.762946313121132</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.24082621351201</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.06382466434698</v>
+        <v>-15.9650960596765</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8839860859098232</v>
+        <v>0.8357511441608403</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.586247826937092</v>
+        <v>-5.734189174729939</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.95594053820701</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.20848059952526</v>
+        <v>-16.07717165309366</v>
       </c>
       <c r="F79" t="n">
-        <v>0.608138540464748</v>
+        <v>0.5690167075156946</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.631417361380519</v>
+        <v>-5.764246788947731</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.646838232977035</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.67768836655682</v>
+        <v>-16.57203692816279</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5851406521627801</v>
+        <v>0.5443076668103064</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.579569443556887</v>
+        <v>-5.710164594985918</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.321601032762713</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.19596709551161</v>
+        <v>-17.09788872875443</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4470506532067673</v>
+        <v>0.3920542149608411</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.545962410353713</v>
+        <v>-5.757895969027609</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.982370048885172</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.5574749302719</v>
+        <v>-17.50038599708693</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1313723688169361</v>
+        <v>0.06525832895564523</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.614115166078507</v>
+        <v>-5.803187728642709</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.630991726826018</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.04771031583806</v>
+        <v>-17.99895225035432</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1536711291369351</v>
+        <v>0.07600436604912429</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.651432955493669</v>
+        <v>-5.813381307960227</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.276640010710805</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.92850401496773</v>
+        <v>-18.8466571510087</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01348863524188285</v>
+        <v>-0.01384091314417171</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.619747301989193</v>
+        <v>-5.822509083780757</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.924056879156813</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.54918788175691</v>
+        <v>-19.47781327050682</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.09815183656411999</v>
+        <v>-0.1831374429317025</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.729813513584049</v>
+        <v>-5.914349077775754</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.57746996027344</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.242649504767</v>
+        <v>-20.16893305922765</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2400797059106609</v>
+        <v>-0.3045510394646683</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.890378277107271</v>
+        <v>-6.112808533524433</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.247240673650103</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.93543644482945</v>
+        <v>-20.87837684568568</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3475302988317177</v>
+        <v>-0.4170764215135828</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.235273266533786</v>
+        <v>-6.463584998211847</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.939780067732755</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.75786029097501</v>
+        <v>-21.70878932905179</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4611899304737564</v>
+        <v>-0.5294649113702237</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.491202998003049</v>
+        <v>-6.715481299015905</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.661310727414731</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70273420310933</v>
+        <v>-22.68439553835153</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6882500763938874</v>
+        <v>-0.7451532273179104</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.450047338197359</v>
+        <v>-6.727361585702509</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.421751018300917</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.81262187501576</v>
+        <v>-23.76826880471911</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.965388319651828</v>
+        <v>-1.024985313359521</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.893910493630833</v>
+        <v>-7.143680076447784</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.225640719080758</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.07760351176133</v>
+        <v>-25.01633447770515</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9872812924018732</v>
+        <v>-1.017646914052282</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.218843668019734</v>
+        <v>-7.487919938954133</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.075419960028995</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.26764645125083</v>
+        <v>-26.22588944360051</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.201341569062877</v>
+        <v>-1.241685653728659</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.557598064821405</v>
+        <v>-7.809738815968809</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.974026634507006</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.5172766064343</v>
+        <v>-27.51281783217167</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.4492533292704</v>
+        <v>-1.495483778203948</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.950962668326514</v>
+        <v>-8.166768320439006</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.918582341648784</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.94452193658934</v>
+        <v>-28.98984791925251</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.765312956195851</v>
+        <v>-1.792945623007654</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.234881964108865</v>
+        <v>-8.490410797015043</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.904383603499751</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.59899852790486</v>
+        <v>-30.58907384396502</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.053539467027955</v>
+        <v>-2.088407864002793</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.621861524645785</v>
+        <v>-8.821763237420203</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.925875213060197</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.33978320194547</v>
+        <v>-32.38242267533526</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.109264367297051</v>
+        <v>-2.140182446723422</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.941861691105968</v>
+        <v>-9.176074454072396</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.972860732881508</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.04110625705977</v>
+        <v>-34.0686753667823</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.521573872411457</v>
+        <v>-2.527093561164204</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.389807167273316</v>
+        <v>-9.609396910700802</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.034958007261203</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.97298020899717</v>
+        <v>-36.04498305762966</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.940287976521521</v>
+        <v>-2.909218337882276</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.775393360853165</v>
+        <v>-10.03987396533266</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.099911853742888</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.01542394023673</v>
+        <v>-38.08898393755633</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.231843901029994</v>
+        <v>-3.1899500011874</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.17201893193851</v>
+        <v>-10.41652305435979</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.156973620195406</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.16742053735012</v>
+        <v>-40.27719340853296</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.638751053556458</v>
+        <v>-3.564271922945875</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.3760029654468</v>
+        <v>-10.56490441277066</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.191786832826666</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.01187904650708</v>
+        <v>-42.15837324826732</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.110281098849804</v>
+        <v>-4.010486690682336</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.66394102487376</v>
+        <v>-10.84836903091439</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.199910904098285</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.2234677483213</v>
+        <v>-44.3752274104772</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.419579229278311</v>
+        <v>-4.237092158963844</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.85933996232374</v>
+        <v>-11.01540195052254</v>
       </c>
     </row>
   </sheetData>
